--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_402__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_402__Reeval_Sobol_Modell_1.2.xlsx
@@ -6124,7 +6124,7 @@
                   <c:v>82.26915740966797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.35817718505859</c:v>
+                  <c:v>39.35817337036133</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.1798066347837448</c:v>
@@ -6148,16 +6148,16 @@
                   <c:v>39.10523223876953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.02265167236328</c:v>
+                  <c:v>54.02265548706055</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>93.96934509277344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.9498462677002</c:v>
+                  <c:v>17.94985008239746</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.5401611328125</c:v>
+                  <c:v>95.54017639160156</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.3672065138816833</c:v>
@@ -6169,10 +6169,10 @@
                   <c:v>-0.1192517951130867</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.15857696533203</c:v>
+                  <c:v>99.1585693359375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.50024032592773</c:v>
+                  <c:v>57.50023651123047</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.1120759919285774</c:v>
@@ -6184,13 +6184,13 @@
                   <c:v>101.9135131835938</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.06385803222656</c:v>
+                  <c:v>98.06387329101562</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96.54507446289062</c:v>
+                  <c:v>96.54505920410156</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3102028369903564</c:v>
+                  <c:v>0.3101998865604401</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>89.88440704345703</c:v>
@@ -6205,10 +6205,10 @@
                   <c:v>0.1067051589488983</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.67572021484375</c:v>
+                  <c:v>20.67569732666016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.97252655029297</c:v>
+                  <c:v>70.97251129150391</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.1798066347837448</c:v>
@@ -6217,13 +6217,13 @@
                   <c:v>0.4789120852947235</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.269094228744507</c:v>
+                  <c:v>-3.269088268280029</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.923150539398193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>98.99460601806641</c:v>
+                  <c:v>98.99459075927734</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1.066407799720764</c:v>
@@ -6238,7 +6238,7 @@
                   <c:v>96.26217651367188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>58.67248153686523</c:v>
+                  <c:v>58.67248916625977</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>85.15243530273438</c:v>
@@ -6253,7 +6253,7 @@
                   <c:v>-0.6215932965278625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.273953437805176</c:v>
+                  <c:v>-1.273950457572937</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2.17566180229187</c:v>
@@ -6262,16 +6262,16 @@
                   <c:v>90.70484161376953</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.829444646835327</c:v>
+                  <c:v>1.829453468322754</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>95.3221435546875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>61.44214630126953</c:v>
+                  <c:v>61.44211196899414</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.57756423950195</c:v>
+                  <c:v>33.57755661010742</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>94.22651672363281</c:v>
@@ -6283,7 +6283,7 @@
                   <c:v>46.69492721557617</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44.9523811340332</c:v>
+                  <c:v>44.95236587524414</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>86.9156494140625</c:v>
@@ -6292,13 +6292,13 @@
                   <c:v>-0.7427647113800049</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.73380279541016</c:v>
+                  <c:v>46.73379898071289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>86.50318908691406</c:v>
+                  <c:v>86.50319671630859</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.165172815322876</c:v>
+                  <c:v>-1.165169954299927</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.8163717985153198</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>-1.082626104354858</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>75.62300872802734</c:v>
+                  <c:v>75.62301635742188</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>93.82502746582031</c:v>
@@ -6340,7 +6340,7 @@
                   <c:v>39.10523223876953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.43405914306641</c:v>
+                  <c:v>94.43405151367188</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>41.98479080200195</c:v>
@@ -6349,7 +6349,7 @@
                   <c:v>104.1246032714844</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>97.57154083251953</c:v>
+                  <c:v>97.571533203125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>89.67002105712891</c:v>
@@ -6358,16 +6358,16 @@
                   <c:v>98.82325744628906</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>66.36982727050781</c:v>
+                  <c:v>66.36983489990234</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.2745383977890015</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.745457530021667</c:v>
+                  <c:v>-1.745460391044617</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>97.26955413818359</c:v>
+                  <c:v>97.26953887939453</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.24795532226562</c:v>
@@ -6394,7 +6394,7 @@
                   <c:v>-0.4365892708301544</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>45.31032562255859</c:v>
+                  <c:v>45.31032943725586</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>96.16868591308594</c:v>
@@ -6403,7 +6403,7 @@
                   <c:v>39.10523223876953</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.56768608093262</c:v>
+                  <c:v>19.56769371032715</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>93.03836059570312</c:v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.35817718505859</v>
+        <v>39.35817337036133</v>
       </c>
       <c r="G4">
         <v>110</v>
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>54.02265167236328</v>
+        <v>54.02265548706055</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.9498462677002</v>
+        <v>17.94985008239746</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>95.5401611328125</v>
+        <v>95.54017639160156</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>99.15857696533203</v>
+        <v>99.1585693359375</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>57.50024032592773</v>
+        <v>57.50023651123047</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>98.06385803222656</v>
+        <v>98.06387329101562</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>96.54507446289062</v>
+        <v>96.54505920410156</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.3102028369903564</v>
+        <v>0.3101998865604401</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.67572021484375</v>
+        <v>20.67569732666016</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>70.97252655029297</v>
+        <v>70.97251129150391</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-3.269094228744507</v>
+        <v>-3.269088268280029</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>98.99460601806641</v>
+        <v>98.99459075927734</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>58.67248153686523</v>
+        <v>58.67248916625977</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.273953437805176</v>
+        <v>-1.273950457572937</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.829444646835327</v>
+        <v>1.829453468322754</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>61.44214630126953</v>
+        <v>61.44211196899414</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>33.57756423950195</v>
+        <v>33.57755661010742</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>44.9523811340332</v>
+        <v>44.95236587524414</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>46.73380279541016</v>
+        <v>46.73379898071289</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>86.50318908691406</v>
+        <v>86.50319671630859</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.165172815322876</v>
+        <v>-1.165169954299927</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>75.62300872802734</v>
+        <v>75.62301635742188</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>94.43405914306641</v>
+        <v>94.43405151367188</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>97.57154083251953</v>
+        <v>97.571533203125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>66.36982727050781</v>
+        <v>66.36983489990234</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.745457530021667</v>
+        <v>-1.745460391044617</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>97.26955413818359</v>
+        <v>97.26953887939453</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>45.31032562255859</v>
+        <v>45.31032943725586</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>19.56768608093262</v>
+        <v>19.56769371032715</v>
       </c>
     </row>
     <row r="98" spans="1:6">
